--- a/biology/Zoologie/Carabus_granulatus/Carabus_granulatus.xlsx
+++ b/biology/Zoologie/Carabus_granulatus/Carabus_granulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carabus granulatus, le carabe granuleux, est une espèce de coléoptères de la famille des carabes.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce petite (taille comprise entre 14 et 20 mm), « ailée, caractérisée par un corps allongé, peu convexe, un thorax élargi. Les antennes et les pattes sont noires, le dessus de l'animal bronzé à dominante verdâtre ou brune. Les élytres sont subparallèles avec des chaînons[1] » (rainures longitudinales avec des granules). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce petite (taille comprise entre 14 et 20 mm), « ailée, caractérisée par un corps allongé, peu convexe, un thorax élargi. Les antennes et les pattes sont noires, le dessus de l'animal bronzé à dominante verdâtre ou brune. Les élytres sont subparallèles avec des chaînons » (rainures longitudinales avec des granules). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce carabe est une des rares espèces de coléoptères terrestres qui n’a pas complètement perdu son aptitude au vol. Seules les formes montagnardes ont des ailes courtes. Insecte nocturne vivant au bord des eaux, dans les prés humides, il consomme des insectes, vers et escargots. Pendant la journée, il se cachent sous des écorces d'arbres (typiquement le saule) ou des cailloux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce carabe est une des rares espèces de coléoptères terrestres qui n’a pas complètement perdu son aptitude au vol. Seules les formes montagnardes ont des ailes courtes. Insecte nocturne vivant au bord des eaux, dans les prés humides, il consomme des insectes, vers et escargots. Pendant la journée, il se cachent sous des écorces d'arbres (typiquement le saule) ou des cailloux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (8 janv. 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (8 janv. 2013) :
 sous-espèce Carabus granulatus granulatus
 sous-espèce Carabus granulatus leander
 sous-espèce Carabus granulatus telluris
